--- a/2_Formulas_Functions/3_Logical_Functions.xlsx
+++ b/2_Formulas_Functions/3_Logical_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KENNIX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DACF0C-E6D1-403B-A48D-03B483E33508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E035E92-E71E-4BBB-9E45-0F3627021D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-102" yWindow="1488" windowWidth="18372" windowHeight="10296" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_1" sheetId="7" r:id="rId1"/>
@@ -29,30 +29,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1321,36 +1310,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26171875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.15625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.68359375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.15625" style="1"/>
-    <col min="18" max="18" width="14.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1457,9 +1446,12 @@
         <f>AND(L3,M3)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="32"/>
-    </row>
-    <row r="4" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q3" s="32" t="str">
+        <f>IF(P3,"goal met", "goal not met")</f>
+        <v>goal met</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1516,9 +1508,12 @@
         <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="32"/>
-    </row>
-    <row r="5" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q4" s="32" t="str">
+        <f t="shared" ref="Q4:Q13" si="11">IF(P4,"goal met", "goal not met")</f>
+        <v>goal not met</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1575,9 +1570,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="32"/>
-    </row>
-    <row r="6" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q5" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal not met</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1634,9 +1632,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="32"/>
-    </row>
-    <row r="7" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q6" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal met</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1693,9 +1694,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q7" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal not met</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1752,9 +1756,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="32"/>
-    </row>
-    <row r="9" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q8" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal met</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1811,9 +1818,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q9" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal met</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1870,9 +1880,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="32"/>
-    </row>
-    <row r="11" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q10" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal met</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1929,9 +1942,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="32"/>
-    </row>
-    <row r="12" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q11" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal not met</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1988,14 +2004,20 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="33"/>
-    </row>
-    <row r="14" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q12" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>goal met</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2024,33 +2046,33 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.68359375" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.68359375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.15625" style="1"/>
-    <col min="19" max="19" width="14.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="1"/>
+    <col min="19" max="19" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2100,7 +2122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2184,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2286,7 +2308,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2348,7 +2370,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +2432,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2494,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2556,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2596,7 +2618,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2680,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2720,12 +2742,12 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2733,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2751,32 +2773,32 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.15625" customWidth="1"/>
-    <col min="3" max="3" width="21.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="68.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -2832,7 +2854,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -2863,8 +2885,20 @@
       <c r="J2" s="27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" t="str">
+        <f>IF($A2=$K$1,"role desired","not desired")</f>
+        <v>not desired</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF($A2=$L$1,"role desired","not desired")</f>
+        <v>not desired</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF($A2=$K$1,"role desired",IF($A2=$L$1,"role desired","not desired"))</f>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -2895,8 +2929,20 @@
       <c r="J3" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:L21" si="0">IF($A3=$K$1,"role desired","not desired")</f>
+        <v>role desired</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L21" si="1">IF($A3=$L$1,"role desired","not desired")</f>
+        <v>not desired</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M21" si="2">IF($A3=$K$1,"role desired",IF($A3=$L$1,"role desired","not desired"))</f>
+        <v>role desired</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -2925,8 +2971,20 @@
       <c r="J4" s="27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>role desired</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>role desired</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
@@ -2955,8 +3013,20 @@
       <c r="J5" s="27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
@@ -2985,8 +3055,20 @@
       <c r="J6" s="27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -3015,8 +3097,20 @@
       <c r="J7" s="27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -3045,8 +3139,20 @@
       <c r="J8" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>role desired</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>role desired</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -3077,8 +3183,20 @@
       <c r="J9" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>role desired</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>role desired</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -3107,8 +3225,20 @@
       <c r="J10" s="27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>role desired</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>role desired</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -3139,8 +3269,20 @@
       <c r="J11" s="27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>role desired</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>role desired</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
@@ -3171,8 +3313,20 @@
       <c r="J12" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
@@ -3203,8 +3357,20 @@
       <c r="J13" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
@@ -3235,8 +3401,20 @@
       <c r="J14" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
@@ -3267,8 +3445,20 @@
       <c r="J15" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
@@ -3299,8 +3489,20 @@
       <c r="J16" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
@@ -3331,8 +3533,20 @@
       <c r="J17" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>123</v>
       </c>
@@ -3361,8 +3575,20 @@
       <c r="J18" s="27" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>role desired</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>role desired</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>0</v>
       </c>
@@ -3393,8 +3619,20 @@
       <c r="J19" s="27" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
@@ -3423,8 +3661,20 @@
       <c r="J20" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>not desired</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>not desired</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
@@ -3454,6 +3704,18 @@
       </c>
       <c r="J21" s="27" t="s">
         <v>135</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>not desired</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>role desired</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>role desired</v>
       </c>
     </row>
   </sheetData>
@@ -3465,31 +3727,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4064259-8981-41EE-A951-64D7FCDC9F77}">
   <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.41796875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83984375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.15625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="38.15625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="68.15625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.15625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -3549,7 +3813,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="2" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -3613,7 +3877,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="3" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3677,7 +3941,7 @@
         <v>Salary Low</v>
       </c>
     </row>
-    <row r="4" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -3739,7 +4003,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="5" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
@@ -3801,7 +4065,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="6" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
@@ -3863,7 +4127,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="7" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +4189,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="8" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +4251,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="9" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -4051,7 +4315,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="10" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -4113,7 +4377,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="11" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -4177,7 +4441,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="12" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
@@ -4241,7 +4505,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="13" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
@@ -4305,7 +4569,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="14" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +4633,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="15" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4697,7 @@
         <v>Salary Low</v>
       </c>
     </row>
-    <row r="16" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18 16384:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
@@ -4497,7 +4761,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
@@ -4561,7 +4825,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>123</v>
       </c>
@@ -4623,7 +4887,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +4951,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
@@ -4749,7 +5013,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
@@ -4827,17 +5091,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.578125" customWidth="1"/>
-    <col min="2" max="2" width="13.41796875" customWidth="1"/>
-    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
@@ -4854,7 +5118,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
@@ -4874,7 +5138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
@@ -4894,7 +5158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -4914,7 +5178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
@@ -4934,7 +5198,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
@@ -4954,7 +5218,7 @@
         <v>This hides #N/A error</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
@@ -4974,7 +5238,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
@@ -5004,17 +5268,17 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="D2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.578125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
         <v>137</v>
       </c>
@@ -5028,7 +5292,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="b">
         <v>1</v>
       </c>
@@ -5044,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="b">
         <v>1</v>
       </c>
@@ -5060,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="b">
         <v>0</v>
       </c>
@@ -5076,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40" t="b">
         <v>0</v>
       </c>
